--- a/PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software-systems-verification-and-validation\PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC306F6D-2781-4F79-8624-578681D07B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B940E12-A6E0-4501-93C3-79A89BC06C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>A10</t>
   </si>
   <si>
-    <t>Diagrama e prea incarcata, neclara din cauza abuzului de relatii</t>
-  </si>
-  <si>
     <t>C01</t>
   </si>
   <si>
@@ -274,12 +271,6 @@
   </si>
   <si>
     <t>Arhitectura acopera toate cerintele</t>
-  </si>
-  <si>
-    <t>0.25 h</t>
-  </si>
-  <si>
-    <t>0.35 h</t>
   </si>
   <si>
     <t>Da, clasa PaymentAlert implementeaza toate operatiile interfetei aferente</t>
@@ -396,12 +387,6 @@
     <t>SonarLint: Make this anonymous inner class a lambda</t>
   </si>
   <si>
-    <t>1.5 h</t>
-  </si>
-  <si>
-    <t>Effort to perform dynamic code analysis (hours): 1 h</t>
-  </si>
-  <si>
     <t>OrdersGUIController, 116</t>
   </si>
   <si>
@@ -427,6 +412,21 @@
   </si>
   <si>
     <t>Aplicatia nu semnaleaza erori atunci cand o comanda este vida, servita inainte sa fi fost gatita de catre bucatar, cand o platesti inainte sa fi fost servita, cand parasesti masa inainte sa primesti/servesti/platesti comada, inchizi restaurantul inainte sa fi inchis bucataria, plasezi comenzi desi bucataria e inchisa, etc.</t>
+  </si>
+  <si>
+    <t>Diagrama e clara</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours): 2 h</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>1 h</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1380,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1726,8 +1726,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,11 +1853,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -1877,11 +1877,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1912,11 +1912,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1925,11 +1925,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -1938,11 +1938,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1951,11 +1951,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1964,11 +1964,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1988,11 +1988,11 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2109,8 +2109,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="26"/>
     </row>
@@ -2229,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2247,16 +2247,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -2265,16 +2265,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -2283,16 +2283,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -2301,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2319,16 +2319,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
